--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B115 7PM Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57A2F12-9C8E-40B3-8A40-B78EB18F170F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E419E5-0D4E-44CA-853C-1862F65EDEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{48276D3D-D78C-4007-BBA6-938CD6FB005D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>ChromeDriver</t>
   </si>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>findElement and element is not found</t>
+  </si>
+  <si>
+    <t>UnsupportedOperationException</t>
+  </si>
+  <si>
+    <t>when we use submit() on normal button</t>
+  </si>
+  <si>
+    <t>ElementNotInteractableException</t>
+  </si>
+  <si>
+    <t>if we try to perform action on disabled/hidden element</t>
   </si>
 </sst>
 </file>
@@ -779,16 +791,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C6E73E-FE4A-42C4-BAF1-27F0344F7407}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -845,6 +859,34 @@
       </c>
       <c r="D4" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B115 7PM Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E419E5-0D4E-44CA-853C-1862F65EDEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3253A55-5050-4A59-B2A5-91445FEE755D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{48276D3D-D78C-4007-BBA6-938CD6FB005D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>ChromeDriver</t>
   </si>
@@ -207,6 +207,18 @@
   </si>
   <si>
     <t>if we try to perform action on disabled/hidden element</t>
+  </si>
+  <si>
+    <t>JavascriptException</t>
+  </si>
+  <si>
+    <t>when we use executeScript method of JSE</t>
+  </si>
+  <si>
+    <t>ElementClickInterceptedException</t>
+  </si>
+  <si>
+    <t>when we try to click on the element which is not visible at present</t>
   </si>
 </sst>
 </file>
@@ -791,10 +803,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C6E73E-FE4A-42C4-BAF1-27F0344F7407}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,6 +899,34 @@
       </c>
       <c r="D6" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B115 7PM Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3253A55-5050-4A59-B2A5-91445FEE755D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5766A1DB-2E95-47AC-93CA-C48475DBC1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{48276D3D-D78C-4007-BBA6-938CD6FB005D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{48276D3D-D78C-4007-BBA6-938CD6FB005D}"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>ChromeDriver</t>
   </si>
@@ -219,6 +219,15 @@
   </si>
   <si>
     <t>when we try to click on the element which is not visible at present</t>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <t>only using JSE</t>
+  </si>
+  <si>
+    <t>JSE+ Actions class</t>
   </si>
 </sst>
 </file>
@@ -731,10 +740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9AAECB-C3F1-4937-8D0A-7B0F6BB9AC0A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,6 +805,17 @@
         <v>47</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -805,7 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C6E73E-FE4A-42C4-BAF1-27F0344F7407}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B115 7PM Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5766A1DB-2E95-47AC-93CA-C48475DBC1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D47890D-2CAA-4807-B0ED-D49C3F3A4056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{48276D3D-D78C-4007-BBA6-938CD6FB005D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{48276D3D-D78C-4007-BBA6-938CD6FB005D}"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>ChromeDriver</t>
   </si>
@@ -228,6 +228,17 @@
   </si>
   <si>
     <t>JSE+ Actions class</t>
+  </si>
+  <si>
+    <t>NoSuchFrameException</t>
+  </si>
+  <si>
+    <t>while switching if given frame does not exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	driver.switchTo().frame(0);
+driver.switchTo().frame("f1");
+driver.switchTo().frame(frameElement);</t>
   </si>
 </sst>
 </file>
@@ -284,10 +295,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9AAECB-C3F1-4937-8D0A-7B0F6BB9AC0A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -823,10 +837,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C6E73E-FE4A-42C4-BAF1-27F0344F7407}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,6 +963,20 @@
         <v>59</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -958,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980A1B70-7DC0-4B36-B83C-486F3A31960D}">
   <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +995,7 @@
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1018,7 +1046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1027,6 +1055,9 @@
       </c>
       <c r="C6" t="s">
         <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B115 7PM Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D47890D-2CAA-4807-B0ED-D49C3F3A4056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D103A69E-90A0-47F9-AF6C-E4F620907D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{48276D3D-D78C-4007-BBA6-938CD6FB005D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{48276D3D-D78C-4007-BBA6-938CD6FB005D}"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>ChromeDriver</t>
   </si>
@@ -239,6 +239,24 @@
     <t xml:space="preserve">	driver.switchTo().frame(0);
 driver.switchTo().frame("f1");
 driver.switchTo().frame(frameElement);</t>
+  </si>
+  <si>
+    <t>NoAlertPresentException</t>
+  </si>
+  <si>
+    <t>when we use any alert option , if popup is not present</t>
+  </si>
+  <si>
+    <t>InvalidArgumentException</t>
+  </si>
+  <si>
+    <t>when we try to click on browse button</t>
+  </si>
+  <si>
+    <t>WebDriverException</t>
+  </si>
+  <si>
+    <t>file path is absolute (while uploading the file)</t>
   </si>
 </sst>
 </file>
@@ -837,10 +855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C6E73E-FE4A-42C4-BAF1-27F0344F7407}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,6 +995,48 @@
         <v>64</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -986,7 +1046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980A1B70-7DC0-4B36-B83C-486F3A31960D}">
   <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B115 7PM Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D103A69E-90A0-47F9-AF6C-E4F620907D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0742EA59-B054-40F6-93F7-551E5CCA5AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{48276D3D-D78C-4007-BBA6-938CD6FB005D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{48276D3D-D78C-4007-BBA6-938CD6FB005D}"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t>ChromeDriver</t>
   </si>
@@ -257,6 +257,15 @@
   </si>
   <si>
     <t>file path is absolute (while uploading the file)</t>
+  </si>
+  <si>
+    <t>open new tab</t>
+  </si>
+  <si>
+    <t>no method</t>
+  </si>
+  <si>
+    <t>driver.switchTo().newWindow(WindowType.TAB);</t>
   </si>
 </sst>
 </file>
@@ -772,10 +781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9AAECB-C3F1-4937-8D0A-7B0F6BB9AC0A}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,6 +857,17 @@
         <v>62</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -857,7 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C6E73E-FE4A-42C4-BAF1-27F0344F7407}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B115 7PM Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0742EA59-B054-40F6-93F7-551E5CCA5AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79C4326-61EF-44E4-BAD6-E6BE82389C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{48276D3D-D78C-4007-BBA6-938CD6FB005D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{48276D3D-D78C-4007-BBA6-938CD6FB005D}"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>ChromeDriver</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>driver.switchTo().newWindow(WindowType.TAB);</t>
+  </si>
+  <si>
+    <t>if we try to use any deselect method on SSLB</t>
   </si>
 </sst>
 </file>
@@ -783,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9AAECB-C3F1-4937-8D0A-7B0F6BB9AC0A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,10 +878,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C6E73E-FE4A-42C4-BAF1-27F0344F7407}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,6 +1058,20 @@
       </c>
       <c r="D12" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B115 7PM Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79C4326-61EF-44E4-BAD6-E6BE82389C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050B641D-91DA-4790-82E7-C22C105BFAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{48276D3D-D78C-4007-BBA6-938CD6FB005D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{48276D3D-D78C-4007-BBA6-938CD6FB005D}"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t>ChromeDriver</t>
   </si>
@@ -269,6 +269,24 @@
   </si>
   <si>
     <t>if we try to use any deselect method on SSLB</t>
+  </si>
+  <si>
+    <t>timeouts getter method</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>implicitlyWait</t>
+  </si>
+  <si>
+    <t>long, TimeUnit</t>
+  </si>
+  <si>
+    <t>Duration</t>
   </si>
 </sst>
 </file>
@@ -784,15 +802,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9AAECB-C3F1-4937-8D0A-7B0F6BB9AC0A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -869,6 +887,28 @@
       </c>
       <c r="C7" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -880,7 +920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C6E73E-FE4A-42C4-BAF1-27F0344F7407}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B115 7PM Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050B641D-91DA-4790-82E7-C22C105BFAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE2C211-E6CB-4B1E-BADD-1645BE5DF78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{48276D3D-D78C-4007-BBA6-938CD6FB005D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{48276D3D-D78C-4007-BBA6-938CD6FB005D}"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
   <si>
     <t>ChromeDriver</t>
   </si>
@@ -287,6 +287,27 @@
   </si>
   <si>
     <t>Duration</t>
+  </si>
+  <si>
+    <t>TimeUnit in Explicit Wait</t>
+  </si>
+  <si>
+    <t>only Seconds</t>
+  </si>
+  <si>
+    <t>all time unit</t>
+  </si>
+  <si>
+    <t>TimeOutException</t>
+  </si>
+  <si>
+    <t>ScriptTimeoutException</t>
+  </si>
+  <si>
+    <t>explicit wait/FluentWait/PageLoadTimeout</t>
+  </si>
+  <si>
+    <t>JSE</t>
   </si>
 </sst>
 </file>
@@ -739,24 +760,24 @@
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
@@ -767,12 +788,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
@@ -786,7 +807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,20 +823,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9AAECB-C3F1-4937-8D0A-7B0F6BB9AC0A}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -823,7 +844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -834,7 +855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -845,7 +866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -856,7 +877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -867,7 +888,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -878,7 +899,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -889,7 +910,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -900,7 +921,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -909,6 +930,17 @@
       </c>
       <c r="C9" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -918,21 +950,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C6E73E-FE4A-42C4-BAF1-27F0344F7407}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -946,7 +978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -960,7 +992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -974,7 +1006,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -988,7 +1020,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1002,7 +1034,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1016,7 +1048,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1030,7 +1062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1044,7 +1076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1058,7 +1090,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -1072,7 +1104,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -1086,7 +1118,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -1100,7 +1132,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1112,6 +1144,34 @@
       </c>
       <c r="D13" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1127,16 +1187,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1153,12 +1213,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1172,7 +1232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1183,7 +1243,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1197,7 +1257,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B115 7PM Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE2C211-E6CB-4B1E-BADD-1645BE5DF78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECD46CB-9888-4E20-AE5E-DD8922312BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{48276D3D-D78C-4007-BBA6-938CD6FB005D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{48276D3D-D78C-4007-BBA6-938CD6FB005D}"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="90">
   <si>
     <t>ChromeDriver</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>JSE</t>
+  </si>
+  <si>
+    <t>StaleElementReferenceException</t>
   </si>
 </sst>
 </file>
@@ -760,24 +763,24 @@
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
@@ -788,12 +791,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
@@ -807,7 +810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,14 +832,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -844,7 +847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -855,7 +858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -866,7 +869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -877,7 +880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -888,7 +891,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -899,7 +902,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -910,7 +913,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -921,7 +924,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -932,7 +935,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -950,21 +953,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C6E73E-FE4A-42C4-BAF1-27F0344F7407}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -978,7 +981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -992,7 +995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1006,7 +1009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1076,7 +1079,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -1172,6 +1175,17 @@
       </c>
       <c r="D15" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1187,16 +1201,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1213,12 +1227,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1232,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1243,7 +1257,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1257,7 +1271,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B115 7PM Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECD46CB-9888-4E20-AE5E-DD8922312BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDDD2AC-EA4B-4F8A-B996-7FEE36CBF27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{48276D3D-D78C-4007-BBA6-938CD6FB005D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>ChromeDriver</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>StaleElementReferenceException</t>
+  </si>
+  <si>
+    <t>MethodMatcherException</t>
+  </si>
+  <si>
+    <t>testng</t>
   </si>
 </sst>
 </file>
@@ -953,10 +959,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C6E73E-FE4A-42C4-BAF1-27F0344F7407}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,6 +1191,17 @@
         <v>49</v>
       </c>
       <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B115 7PM Selenium\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDDD2AC-EA4B-4F8A-B996-7FEE36CBF27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE89CFC8-5088-4061-AA25-FD973A8A9F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{48276D3D-D78C-4007-BBA6-938CD6FB005D}"/>
   </bookViews>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C6E73E-FE4A-42C4-BAF1-27F0344F7407}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
